--- a/ftest/fm24/fm24_results.xlsx
+++ b/ftest/fm24/fm24_results.xlsx
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="A14:O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,7 +979,7 @@
         <v>-3</v>
       </c>
       <c r="D2">
-        <v>28108808</v>
+        <v>28109080</v>
       </c>
       <c r="F2">
         <v>387500000</v>
@@ -994,15 +994,15 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>9801456</v>
+        <v>28109348</v>
       </c>
       <c r="K2">
         <f>SUM(J2:J13)</f>
-        <v>24408318.290000003</v>
+        <v>70000002.090000004</v>
       </c>
       <c r="L2">
         <f>$K$2*F2/SUM($F$2:$F$13)</f>
-        <v>9801267.7071243543</v>
+        <v>28108809.129404146</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1018,14 +1018,14 @@
       </c>
       <c r="S2">
         <f>SUMIF($N$2:$N$28,R2,$J$2:$J$28)</f>
-        <v>11413954.420000002</v>
+        <v>32733791.829999998</v>
       </c>
       <c r="T2">
         <v>32733792.074282873</v>
       </c>
       <c r="U2">
         <f>S2/T2</f>
-        <v>0.34869025849795487</v>
+        <v>0.99999999253728766</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -1054,11 +1054,11 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1580880.12</v>
+        <v>4533766.5</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L13" si="0">$K$2*F3/SUM($F$2:$F$13)</f>
-        <v>1580849.6301813475</v>
+        <v>4533678.8918393785</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -1074,14 +1074,14 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S11" si="1">SUMIF($N$2:$N$28,R3,$J$2:$J$28)</f>
-        <v>7600787.4400000004</v>
+        <v>21798107.43</v>
       </c>
       <c r="T3">
         <v>21798105.62095838</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U11" si="2">S3/T3</f>
-        <v>0.34869027484168241</v>
+        <v>1.0000000829907723</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>28108808</v>
+        <v>28109348</v>
       </c>
       <c r="F4">
         <v>1250000</v>
@@ -1110,11 +1110,11 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>31618.3</v>
+        <v>90677.33</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>31616.992603626946</v>
+        <v>90673.577836787561</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -1130,14 +1130,14 @@
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>4179686.66</v>
+        <v>11986818.710000001</v>
       </c>
       <c r="T4">
         <v>11986818.106450008</v>
       </c>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>0.34869025481841132</v>
+        <v>1.000000050351143</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>-3</v>
       </c>
       <c r="D5">
-        <v>4533678.5</v>
+        <v>4533723</v>
       </c>
       <c r="F5" s="2">
         <v>235000000</v>
@@ -1166,11 +1166,11 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>5944043</v>
+        <v>17046772</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>5943994.6094818665</v>
+        <v>17046632.633316062</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -1186,14 +1186,14 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>1213889.77</v>
+        <v>3481284.12</v>
       </c>
       <c r="T5">
         <v>3481284.1983087379</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>0.3486902248858989</v>
+        <v>0.99999997750578995</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1222,11 +1222,11 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1644097.12</v>
+        <v>4715064.5</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>1644083.6153886013</v>
+        <v>4715026.0475129532</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -1242,14 +1242,14 @@
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>19485133.620000001</v>
+        <v>51939999</v>
       </c>
       <c r="T6">
         <v>51940000</v>
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
-        <v>0.37514696996534463</v>
+        <v>0.99999998074701579</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>4533678.5</v>
+        <v>4533766.5</v>
       </c>
       <c r="F7" s="2">
         <v>500000</v>
@@ -1278,11 +1278,11 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>12647.32</v>
+        <v>36270.93</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>12646.79704145078</v>
+        <v>36269.431134715029</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -1298,14 +1298,14 @@
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>5064484.13</v>
+        <v>13499999.25</v>
       </c>
       <c r="T7">
         <v>13500000</v>
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>0.37514697259259261</v>
+        <v>0.9999999444444444</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1319,7 +1319,7 @@
         <v>-3</v>
       </c>
       <c r="D8">
-        <v>90673.57</v>
+        <v>90675.45</v>
       </c>
       <c r="F8">
         <v>135000000</v>
@@ -1334,11 +1334,11 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>3414569.75</v>
+        <v>9792559</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>3414635.2011917103</v>
+        <v>9792746.4063730575</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1354,14 +1354,14 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>139259.17000000001</v>
+        <v>371212.25</v>
       </c>
       <c r="T8">
         <v>371212.24</v>
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
-        <v>0.37514703178968456</v>
+        <v>1.000000026938767</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1390,11 +1390,11 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>758793.25</v>
+        <v>2176124.25</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>758807.82248704671</v>
+        <v>2176165.8680829015</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -1410,14 +1410,14 @@
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>3563896.31</v>
+        <v>9500000.25</v>
       </c>
       <c r="T9">
         <v>9500000</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>0.37514698000000002</v>
+        <v>1.0000000263157895</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>90673.58</v>
+        <v>90677.33</v>
       </c>
       <c r="F10">
         <v>250000</v>
@@ -1446,11 +1446,11 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6323.66</v>
+        <v>18135.46</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>6323.39852072539</v>
+        <v>18134.715567357514</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -1466,14 +1466,14 @@
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>10936042.619999999</v>
+        <v>39599999.75</v>
       </c>
       <c r="T10">
         <v>39599999.999999993</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0.27616269242424246</v>
+        <v>0.99999999368686887</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>-3</v>
       </c>
       <c r="D11">
-        <v>17046630</v>
+        <v>17046702</v>
       </c>
       <c r="F11">
         <v>42500000</v>
@@ -1502,11 +1502,11 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1074795.8799999999</v>
+        <v>3082380.25</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>1074977.7485233161</v>
+        <v>3082901.6464507771</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1522,14 +1522,14 @@
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>4374417.59</v>
+        <v>15840000.060000001</v>
       </c>
       <c r="T11">
         <v>15840000</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>0.27616272664141411</v>
+        <v>1.0000000037878789</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1558,11 +1558,11 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>126446.57</v>
+        <v>362632.94</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>126467.97041450778</v>
+        <v>362694.31134715024</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>17046632</v>
+        <v>17046772</v>
       </c>
       <c r="F13">
         <v>500000</v>
@@ -1600,11 +1600,11 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>12647.32</v>
+        <v>36270.93</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>12646.79704145078</v>
+        <v>36269.431134715029</v>
       </c>
       <c r="M13">
         <v>12</v>
@@ -1627,7 +1627,7 @@
         <v>-3</v>
       </c>
       <c r="D14">
-        <v>4715026</v>
+        <v>4715045</v>
       </c>
       <c r="F14">
         <v>35000000</v>
@@ -1642,15 +1642,15 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>12867541</v>
+        <v>34300000</v>
       </c>
       <c r="K14">
         <f>SUM(J14:J22)</f>
-        <v>28252773.229999997</v>
+        <v>75311210.75</v>
       </c>
       <c r="L14">
         <f>$K$14*F14/SUM($F$14:$F$22)</f>
-        <v>12536286.219940396</v>
+        <v>33416998.956043798</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1688,11 +1688,11 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5514660.5</v>
+        <v>14699999</v>
       </c>
       <c r="L15">
         <f t="shared" ref="L15:L22" si="3">$K$14*F15/SUM($F$14:$F$22)</f>
-        <v>5372694.0942601692</v>
+        <v>14321570.981161628</v>
       </c>
       <c r="M15">
         <v>14</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>4715026</v>
+        <v>4715064.5</v>
       </c>
       <c r="F16">
         <v>3000000</v>
@@ -1730,11 +1730,11 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1102932.1200000001</v>
+        <v>2940000</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>1074538.8188520339</v>
+        <v>2864314.1962323254</v>
       </c>
       <c r="M16">
         <v>15</v>
@@ -1757,7 +1757,7 @@
         <v>-3</v>
       </c>
       <c r="D17">
-        <v>36269.43</v>
+        <v>36270.18</v>
       </c>
       <c r="F17">
         <v>10500000</v>
@@ -1772,11 +1772,11 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>3545138.75</v>
+        <v>9449999</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>3760885.8659821185</v>
+        <v>10025099.686813138</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -1814,11 +1814,11 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1519345.38</v>
+        <v>4050000.25</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>1611808.2282780509</v>
+        <v>4296471.2943484886</v>
       </c>
       <c r="M18">
         <v>17</v>
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>36269.43</v>
+        <v>36270.93</v>
       </c>
       <c r="F19">
         <v>278788</v>
@@ -1856,11 +1856,11 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>102494.77</v>
+        <v>273212.25</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>99856.17607670695</v>
+        <v>266178.8087130725</v>
       </c>
       <c r="M19">
         <v>18</v>
@@ -1883,7 +1883,7 @@
         <v>-3</v>
       </c>
       <c r="D20">
-        <v>9792745</v>
+        <v>9792653</v>
       </c>
       <c r="F20">
         <v>100000</v>
@@ -1898,11 +1898,11 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>36764.400000000001</v>
+        <v>98000</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>35817.960628401132</v>
+        <v>95477.139874410845</v>
       </c>
       <c r="M20">
         <v>19</v>
@@ -1940,11 +1940,11 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>2545640.25</v>
+        <v>6785714.5</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>2686347.0471300846</v>
+        <v>7160785.490580814</v>
       </c>
       <c r="M21">
         <v>20</v>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>9792746</v>
+        <v>9792559</v>
       </c>
       <c r="F22">
         <v>3000000</v>
@@ -1982,11 +1982,11 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1018256.06</v>
+        <v>2714285.75</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>1074538.8188520339</v>
+        <v>2864314.1962323254</v>
       </c>
       <c r="M22">
         <v>21</v>
@@ -2009,7 +2009,7 @@
         <v>-3</v>
       </c>
       <c r="D23">
-        <v>2176165.75</v>
+        <v>2176145</v>
       </c>
       <c r="F23">
         <v>30000000</v>
@@ -2024,15 +2024,15 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>8202032</v>
+        <v>29700000</v>
       </c>
       <c r="K23">
         <f>SUM(J23:J28)</f>
-        <v>15310460.209999999</v>
+        <v>55439999.810000002</v>
       </c>
       <c r="L23">
         <f>$K$23*F23/SUM($F$23:$F$28)</f>
-        <v>8202032.2553571425</v>
+        <v>29699999.898214284</v>
       </c>
       <c r="M23">
         <v>22</v>
@@ -2070,11 +2070,11 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>2050508</v>
+        <v>7425000</v>
       </c>
       <c r="L24">
         <f t="shared" ref="L24:L28" si="4">$K$23*F24/SUM($F$23:$F$28)</f>
-        <v>2050508.0638392856</v>
+        <v>7424999.9745535711</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2176165.75</v>
+        <v>2176124.25</v>
       </c>
       <c r="F25">
         <v>2500000</v>
@@ -2112,11 +2112,11 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>683502.62</v>
+        <v>2474999.75</v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>683502.68794642854</v>
+        <v>2474999.9915178572</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2139,7 +2139,7 @@
         <v>-3</v>
       </c>
       <c r="D26">
-        <v>18134.71</v>
+        <v>18135.09</v>
       </c>
       <c r="F26">
         <v>10000000</v>
@@ -2154,11 +2154,11 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>2734011</v>
+        <v>9900000</v>
       </c>
       <c r="L26">
         <f t="shared" si="4"/>
-        <v>2734010.7517857142</v>
+        <v>9899999.9660714287</v>
       </c>
       <c r="M26">
         <v>25</v>
@@ -2196,11 +2196,11 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>1367005.5</v>
+        <v>4950000</v>
       </c>
       <c r="L27">
         <f t="shared" si="4"/>
-        <v>1367005.3758928571</v>
+        <v>4949999.9830357144</v>
       </c>
       <c r="M27">
         <v>26</v>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>18134.71</v>
+        <v>18135.46</v>
       </c>
       <c r="F28">
         <v>1000000</v>
@@ -2238,11 +2238,11 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>273401.09000000003</v>
+        <v>990000.06</v>
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>273401.07517857145</v>
+        <v>989999.99660714285</v>
       </c>
       <c r="M28">
         <v>27</v>
@@ -2265,7 +2265,7 @@
         <v>-3</v>
       </c>
       <c r="D29">
-        <v>3082901.25</v>
+        <v>3082640.75</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>3082901.5</v>
+        <v>3082380.25</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2307,7 +2307,7 @@
         <v>-3</v>
       </c>
       <c r="D32">
-        <v>362694.28</v>
+        <v>362663.66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>362694.31</v>
+        <v>362632.94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
         <v>-3</v>
       </c>
       <c r="D35">
-        <v>36269.43</v>
+        <v>36270.18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>36269.43</v>
+        <v>36270.93</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2391,7 +2391,7 @@
         <v>-3</v>
       </c>
       <c r="D38">
-        <v>66225032</v>
+        <v>66037728</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>33417004</v>
+        <v>34300000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2433,7 +2433,7 @@
         <v>-3</v>
       </c>
       <c r="D41">
-        <v>28382158</v>
+        <v>28301880</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>14321573</v>
+        <v>14699999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2475,7 +2475,7 @@
         <v>-3</v>
       </c>
       <c r="D44">
-        <v>5676431</v>
+        <v>5660376.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>2864314.5</v>
+        <v>2940000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2517,7 +2517,7 @@
         <v>-3</v>
       </c>
       <c r="D47">
-        <v>19867510</v>
+        <v>19949996</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>10025101</v>
+        <v>9449999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2559,7 +2559,7 @@
         <v>-3</v>
       </c>
       <c r="D50">
-        <v>8514647</v>
+        <v>8549999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>4296472</v>
+        <v>4050000.25</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
         <v>-3</v>
       </c>
       <c r="D53">
-        <v>527506.93999999994</v>
+        <v>552000.18999999994</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>266178.81</v>
+        <v>273212.25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2643,7 +2643,7 @@
         <v>-3</v>
       </c>
       <c r="D56">
-        <v>189214.36</v>
+        <v>197999.98</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>95477.15</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2685,7 +2685,7 @@
         <v>-3</v>
       </c>
       <c r="D59">
-        <v>14191079</v>
+        <v>14285712</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>7160786.5</v>
+        <v>6785714.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2727,7 +2727,7 @@
         <v>-3</v>
       </c>
       <c r="D62">
-        <v>5676431</v>
+        <v>5714285.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>2864314.5</v>
+        <v>2714285.75</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2769,7 +2769,7 @@
         <v>-3</v>
       </c>
       <c r="D65">
-        <v>59400000</v>
+        <v>59400004</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>29699998</v>
+        <v>29700000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2811,7 +2811,7 @@
         <v>-3</v>
       </c>
       <c r="D68">
-        <v>14850000</v>
+        <v>14850001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>7424999.5</v>
+        <v>7425000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>2475000</v>
+        <v>2474999.75</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2979,7 +2979,7 @@
         <v>-3</v>
       </c>
       <c r="D80">
-        <v>1980000</v>
+        <v>1980000.12</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
